--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.172541414005416</v>
+        <v>1.894064438964444</v>
       </c>
       <c r="D2">
-        <v>0.2410351834777082</v>
+        <v>0.06674962916627414</v>
       </c>
       <c r="E2">
         <v>0.6381067612599721</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.865036157727393</v>
+        <v>2.366748378445679</v>
       </c>
       <c r="D3">
-        <v>0.06223441832138787</v>
+        <v>0.02378143743227712</v>
       </c>
       <c r="E3">
         <v>0.6381067612599721</v>
@@ -479,7 +479,7 @@
         <v>0.6143001609729506</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.39688311196263</v>
+        <v>1.809160665319776</v>
       </c>
       <c r="D4">
-        <v>0.1625102373061134</v>
+        <v>0.07927557131157492</v>
       </c>
       <c r="E4">
         <v>0.6381067612599721</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>5.265125704314063</v>
+        <v>6.774041691908591</v>
       </c>
       <c r="D5">
-        <v>1.459117753288552E-07</v>
+        <v>8.666540662893851E-08</v>
       </c>
       <c r="E5">
         <v>0.6381067612599721</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.689254267158049</v>
+        <v>0.9349617714357372</v>
       </c>
       <c r="D6">
-        <v>0.4906950079652401</v>
+        <v>0.3564013547342548</v>
       </c>
       <c r="E6">
         <v>0.6232037912251209</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.2615317619262161</v>
+        <v>0.2989310282450343</v>
       </c>
       <c r="D7">
-        <v>0.7936931479231273</v>
+        <v>0.7668122523337246</v>
       </c>
       <c r="E7">
         <v>0.6232037912251209</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>3.686316444987808</v>
+        <v>4.590767148975059</v>
       </c>
       <c r="D8">
-        <v>0.0002299160076706386</v>
+        <v>5.791053418446879E-05</v>
       </c>
       <c r="E8">
         <v>0.6232037912251209</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.4272615310114616</v>
+        <v>-0.6728435303477377</v>
       </c>
       <c r="D9">
-        <v>0.6692071044643626</v>
+        <v>0.5055945583933896</v>
       </c>
       <c r="E9">
         <v>0.6143001609729506</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>3.87234634139322</v>
+        <v>3.919927093980859</v>
       </c>
       <c r="D10">
-        <v>0.0001091580245338175</v>
+        <v>0.0004071148796749302</v>
       </c>
       <c r="E10">
         <v>0.6143001609729506</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>3.423041392661353</v>
+        <v>3.573263169696083</v>
       </c>
       <c r="D11">
-        <v>0.0006241788044274443</v>
+        <v>0.001079106529158436</v>
       </c>
       <c r="E11">
         <v>0.6194932343650658</v>
